--- a/Analisis_Datos/Tablas/Correlacion_por_año.xlsx
+++ b/Analisis_Datos/Tablas/Correlacion_por_año.xlsx
@@ -149,38 +149,21 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,14 +1148,9 @@
       <c r="C27" s="1">
         <v>0.105138487594256</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
       <c r="F27" s="1">
         <v>-0.0434266078799905</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
